--- a/output.xlsx
+++ b/output.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
